--- a/spliced/walkingToRunning/2023-04-03_16-56-03/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-03/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5775272211090444</v>
+        <v>-1.059356399572612</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0146637725048413</v>
+        <v>-0.06877905879515356</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.515189159111897</v>
+        <v>2.407926618075761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.249050316914834</v>
+        <v>-1.104726179701384</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07265009759554075</v>
+        <v>1.440624993355549</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.409026505517179</v>
+        <v>1.773343285576245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5930084967222389</v>
+        <v>-0.5441059966882074</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6991769568841986</v>
+        <v>0.8777113159497576</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9499499341829204</v>
+        <v>1.207277496655782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2006309745741717</v>
+        <v>0.1515757088127038</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3479190895059043</v>
+        <v>0.07700501178783151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3913984435503643</v>
+        <v>0.8280433637848317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9682908172164458</v>
+        <v>-0.8091414912802259</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6861609239640158</v>
+        <v>0.04339970233010434</v>
       </c>
       <c r="C6" t="n">
-        <v>1.977810103385178</v>
+        <v>1.094123736756746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.059356399572612</v>
+        <v>-1.296450522428008</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.06877905879515356</v>
+        <v>0.4430659739046126</v>
       </c>
       <c r="C7" t="n">
-        <v>2.407926618075761</v>
+        <v>1.507120371190581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.104726179701384</v>
+        <v>1.030188943722537</v>
       </c>
       <c r="B8" t="n">
-        <v>1.440624993355549</v>
+        <v>1.112867043969416</v>
       </c>
       <c r="C8" t="n">
-        <v>1.773343285576245</v>
+        <v>-0.4273038459280109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5441059966882074</v>
+        <v>-0.01950983642064261</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8777113159497576</v>
+        <v>-2.121916278463881</v>
       </c>
       <c r="C9" t="n">
-        <v>1.207277496655782</v>
+        <v>-2.743124836780999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1515757088127038</v>
+        <v>2.686820753651581</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07700501178783151</v>
+        <v>-0.1019303134230194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8280433637848317</v>
+        <v>-4.739581848102853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.8091414912802259</v>
+        <v>2.067020179144016</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04339970233010434</v>
+        <v>4.138878788453006</v>
       </c>
       <c r="C11" t="n">
-        <v>1.094123736756746</v>
+        <v>-7.458814548013004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.296450522428008</v>
+        <v>-1.318529965447579</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4430659739046126</v>
+        <v>-0.9071916752173932</v>
       </c>
       <c r="C12" t="n">
-        <v>1.507120371190581</v>
+        <v>2.900026571555154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.030188943722537</v>
+        <v>-5.118491420328921</v>
       </c>
       <c r="B13" t="n">
-        <v>1.112867043969416</v>
+        <v>-0.9277605919238714</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4273038459280109</v>
+        <v>7.022751289638649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.01950983642064261</v>
+        <v>-4.701338476170607</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.121916278463881</v>
+        <v>4.033473036979721</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.743124836780999</v>
+        <v>6.285576557201113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.686820753651581</v>
+        <v>0.6423424071953132</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1019303134230194</v>
+        <v>-1.238872872024314</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.739581848102853</v>
+        <v>0.4076568924012518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.067020179144016</v>
+        <v>2.748690418858344</v>
       </c>
       <c r="B16" t="n">
-        <v>4.138878788453006</v>
+        <v>-5.918399258389504</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.458814548013004</v>
+        <v>-5.032549650942702</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.318529965447579</v>
+        <v>3.90800370544684</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9071916752173932</v>
+        <v>1.824196169285198</v>
       </c>
       <c r="C17" t="n">
-        <v>2.900026571555154</v>
+        <v>-6.420193484572113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.118491420328921</v>
+        <v>-0.09310042271849372</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9277605919238714</v>
+        <v>3.190837242564208</v>
       </c>
       <c r="C18" t="n">
-        <v>7.022751289638649</v>
+        <v>-1.485911830526877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.701338476170607</v>
+        <v>-5.086900020557672</v>
       </c>
       <c r="B19" t="n">
-        <v>4.033473036979721</v>
+        <v>-0.347581442587992</v>
       </c>
       <c r="C19" t="n">
-        <v>6.285576557201113</v>
+        <v>4.233577517212423</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6423424071953132</v>
+        <v>-4.690330617414796</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.238872872024314</v>
+        <v>3.666637846680965</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4076568924012518</v>
+        <v>4.422437811158368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.748690418858344</v>
+        <v>-3.853545032563759</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.918399258389504</v>
+        <v>7.179606515853127</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.032549650942702</v>
+        <v>0.02150726318360263</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.654346335781087</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.300580988816252</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.563441323452309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.714518678644319</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.467024099305689</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-5.610007460651495</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.151245980966297</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7463607152954532</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.372515623686779</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.10870781817722</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.5732807598478937</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.703908173764338</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.764231722211575</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.633465962331838</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.590699133977193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-3.505413231302479</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9.71845419680489</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.237572531231097</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.849029684327336</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8.877369792083568</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.541428113895723</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.086845004493447</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-5.60899220659439</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.2191632692931</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.54143344769713</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.492278899325752</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.184806862815476</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.4025364195714203</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.233978587095854</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2824505248356344</v>
       </c>
     </row>
   </sheetData>
